--- a/Benchmark_System/Time_Delay_and_lag5/Time Delay and Lag5_dist.xlsx
+++ b/Benchmark_System/Time_Delay_and_lag5/Time Delay and Lag5_dist.xlsx
@@ -152,16 +152,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.32756829335384069</v>
+        <v>0.32467444097879039</v>
       </c>
       <c r="C2">
-        <v>0.32756457630799779</v>
+        <v>0.324491111042987</v>
       </c>
       <c r="D2">
-        <v>0.32757169985723295</v>
+        <v>0.32475493849766907</v>
       </c>
       <c r="E2">
-        <v>0.34270975328557263</v>
+        <v>0.34710366144091775</v>
       </c>
     </row>
     <row r="3">
@@ -169,16 +169,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.450475415665637</v>
+        <v>6.5080819127256957</v>
       </c>
       <c r="C3">
-        <v>6.458938852135562</v>
+        <v>6.4925250332456041</v>
       </c>
       <c r="D3">
-        <v>6.4499122542689458</v>
+        <v>6.5058417369160608</v>
       </c>
       <c r="E3">
-        <v>2.7136756328823899</v>
+        <v>2.1351086044569443</v>
       </c>
     </row>
     <row r="4">
@@ -186,16 +186,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.6972857685857423</v>
+        <v>1.7080086331149555</v>
       </c>
       <c r="C4">
-        <v>1.6995707298363798</v>
+        <v>1.6900678716823516</v>
       </c>
       <c r="D4">
-        <v>1.6966134002944147</v>
+        <v>1.6910639278833537</v>
       </c>
       <c r="E4">
-        <v>0.50690565795352494</v>
+        <v>0.38867749333106044</v>
       </c>
     </row>
     <row r="5">
@@ -203,16 +203,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.45974605826352122</v>
+        <v>0.45581638389339313</v>
       </c>
       <c r="C5">
-        <v>0.45912013642414473</v>
+        <v>0.46358777107045523</v>
       </c>
       <c r="D5">
-        <v>0.45999617431426065</v>
+        <v>0.46272773419729329</v>
       </c>
       <c r="E5">
-        <v>6.3536833230815892</v>
+        <v>9.14932280132901</v>
       </c>
     </row>
     <row r="6">
@@ -220,7 +220,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>0.71943481925085895</v>
+        <v>0.92202882223343052</v>
       </c>
     </row>
     <row r="7">
@@ -262,16 +262,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>32.953785730015447</v>
+        <v>51.08034663639252</v>
       </c>
       <c r="C9">
-        <v>32.990050538362553</v>
+        <v>51.86711667480067</v>
       </c>
       <c r="D9">
-        <v>32.936801107353972</v>
+        <v>50.572035497567519</v>
       </c>
       <c r="E9">
-        <v>3.1285935596184973</v>
+        <v>4.2456149937876582</v>
       </c>
     </row>
     <row r="10">
@@ -279,7 +279,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>3.1596472648397382</v>
+        <v>4.0394768915492483</v>
       </c>
     </row>
     <row r="11">
@@ -304,16 +304,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.4345717018534474</v>
+        <v>7.4193933498072759</v>
       </c>
       <c r="C12">
-        <v>7.4335707716776813</v>
+        <v>7.3975782182924483</v>
       </c>
       <c r="D12">
-        <v>7.4339139294628254</v>
+        <v>7.3961968419325324</v>
       </c>
       <c r="E12">
-        <v>10.799402117212962</v>
+        <v>11.229508679611431</v>
       </c>
     </row>
     <row r="13">
@@ -355,16 +355,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.18682147881244948</v>
+        <v>0.1861582878085849</v>
       </c>
       <c r="C15">
-        <v>0.18682489030401081</v>
+        <v>0.18583299162982658</v>
       </c>
       <c r="D15">
-        <v>0.18681409146874303</v>
+        <v>0.18599782921607738</v>
       </c>
       <c r="E15">
-        <v>0.18971061522856814</v>
+        <v>0.18967566026791471</v>
       </c>
     </row>
     <row r="16">
@@ -372,16 +372,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.1948892398199322</v>
+        <v>2.1696900304154036</v>
       </c>
       <c r="C16">
-        <v>2.191348399289081</v>
+        <v>2.1494884381152364</v>
       </c>
       <c r="D16">
-        <v>2.1948847599963979</v>
+        <v>2.1748148625491912</v>
       </c>
       <c r="E16">
-        <v>2.146621124027106</v>
+        <v>2.1407786187624955</v>
       </c>
     </row>
   </sheetData>
